--- a/diaries/diary-Tianlun Li.xlsx
+++ b/diaries/diary-Tianlun Li.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/litianlun/Winter2020/265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154C3F45-902A-4145-A047-757CF6423648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC34E29-5585-4449-83D8-D971F3AAEF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32800" yWindow="2720" windowWidth="31920" windowHeight="17540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -134,6 +134,42 @@
   </si>
   <si>
     <t>Happy</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:00 - 3:30 p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish the pacman homework</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished the pacman hw</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PacMan is not a big app, but we still need to take some time reading the code. Fortunately we don't need to read every line of  code to make modification to the application</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cool</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn about mental models, how to externalize mental model and  how to model the code using UML graph</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worried, because the homework sounds intimidating</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explored the pacman features by locating the code that implemented the feature. Built the UML graph of pacman using intellij plugin</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mental model exist in our daily life. Learning how to externalize it is important for software engineers to commnuicate their ideas with other people</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -309,11 +345,11 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -636,7 +672,7 @@
   <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -645,24 +681,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="16">
       <c r="A3" s="1"/>
@@ -775,7 +811,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="68">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>43840</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -796,7 +832,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="68">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>43846</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -816,23 +852,47 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+    <row r="13" spans="1:7" ht="85">
+      <c r="A13" s="10">
+        <v>43849</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="16">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="85">
+      <c r="A14" s="10">
+        <v>43853</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16">
       <c r="A15" s="7"/>

--- a/diaries/diary-Tianlun Li.xlsx
+++ b/diaries/diary-Tianlun Li.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/litianlun/Winter2020/265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC34E29-5585-4449-83D8-D971F3AAEF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB6548-A3F8-244B-A2D0-BAB1E63EEA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -672,7 +672,7 @@
   <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A13" sqref="A13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/diaries/diary-Tianlun Li.xlsx
+++ b/diaries/diary-Tianlun Li.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/litianlun/Winter2020/265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB6548-A3F8-244B-A2D0-BAB1E63EEA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E39D3AE-8238-624D-BBB0-DA459F217122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -170,6 +170,50 @@
   </si>
   <si>
     <t>Mental model exist in our daily life. Learning how to externalize it is important for software engineers to commnuicate their ideas with other people</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/00 - 12:00 p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeyu Huang, Yue Zhang</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export uml graph</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:00 - 5:00 p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn about the features of elasticsearch and decide which two features we want to dive in</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">We choose ip filtering and rank evaluation </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Confused </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elasticsearch is an incredible project with tons of great features. It seems pretty intimidating at first glance</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>The project has very loose coupling, so we don't relly need the uml graph for the whole project, just the parts we need</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elasticsearch is too big to draw an uml graph, with over 10k java classes, the graph is impossible to print out, so we took the parts we looked into and drawed some smaller uml graph</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +716,7 @@
   <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -894,23 +938,51 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+    <row r="15" spans="1:7" ht="51">
+      <c r="A15" s="10">
+        <v>43855</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="85">
+      <c r="A16" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="16">
       <c r="A17" s="7"/>

--- a/diaries/diary-Tianlun Li.xlsx
+++ b/diaries/diary-Tianlun Li.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/litianlun/Winter2020/265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A48F3A-68CF-1547-BF89-35B65CD442AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDFF469-52E8-C745-AA22-088B94F5CC7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-35980" yWindow="460" windowWidth="28020" windowHeight="21140" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -286,6 +286,127 @@
   </si>
   <si>
     <t>gooood</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discuss about last homework, continue discussing key expert practices and midterm preview</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experts should always be skeptical and always seeking for proof; experts simulate the process in mind and draw diagrams alongside.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midterm is coming. This is actually the first formal exam for me at UCI. I will do my best</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exicted</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review all the lecture slides</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>I read through the slides, and made a detailed notes of the materials</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00 p.m. - 10:00 p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 a.m. - 3:00 p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare midterm</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reviewd my notes and added more notes  </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>There's a lot to remember, but I have enough time</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feeling good</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00 p.m - 11:00 p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review the midterm notes</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I think I am prepared </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:00 p.m. - 7:50 p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midterm and short lectrue, continue on kep.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished the midterm! Also I learned about what questions should we ask to get an overview of the system: stakeholders? Functionality? Key developer?</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feeling good about the midterm. Moving to the next assignment</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30 p.m. - 11:30p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search about elasticsearch, it's developer, stakeholder, who are using this system</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lots of companies, individuals are using elasticsearch for different purposes such as search engine and data analysis</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review issues listed on elasticsearch github page, try to locate and understand it</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:00p.m. - 5:00 p.m.
+9:00p.m. - 12:00 a.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected five open issues. Described it and provided possible solutions</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confidnet</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>I never looked into the issue part of github. It contains lots of information and we can see what people are using elasticsearch for</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtained an overview of our project, learned about the stakeholders and  developers behind the scene. There's a lot of helpful information on elasticsearch website and github page. There are over 2k open issues.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -464,11 +585,11 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -790,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -800,24 +921,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="16">
       <c r="A3" s="1"/>
@@ -1063,7 +1184,7 @@
       <c r="A17" s="10">
         <v>43860</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="7"/>
@@ -1084,7 +1205,7 @@
       <c r="A18" s="10">
         <v>43861</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1107,7 +1228,7 @@
       <c r="A19" s="10">
         <v>43864</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1130,7 +1251,7 @@
       <c r="A20" s="10">
         <v>43866</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1149,68 +1270,150 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+    <row r="21" spans="1:7" ht="68">
+      <c r="A21" s="10">
+        <v>43867</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="16">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="D21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34">
+      <c r="A22" s="10">
+        <v>43868</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="16">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="D22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34">
+      <c r="A23" s="10">
+        <v>43871</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="16">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+    <row r="24" spans="1:7" ht="17">
+      <c r="A24" s="10">
+        <v>43873</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="16">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="85">
+      <c r="A25" s="10">
+        <v>43874</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="16">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="102">
+      <c r="A26" s="10">
+        <v>43878</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="16">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
+      <c r="D26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="68">
+      <c r="A27" s="10">
+        <v>43880</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="16">
       <c r="A28" s="7"/>
